--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3808106666666666</v>
+        <v>0.217163</v>
       </c>
       <c r="H2">
-        <v>1.142432</v>
+        <v>0.651489</v>
       </c>
       <c r="I2">
-        <v>0.2683764536797542</v>
+        <v>0.1808902030682995</v>
       </c>
       <c r="J2">
-        <v>0.284735073448575</v>
+        <v>0.1905114067523763</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>8.227695110794667</v>
+        <v>3.932570020919999</v>
       </c>
       <c r="R2">
-        <v>74.04925599715199</v>
+        <v>35.39313018828</v>
       </c>
       <c r="S2">
-        <v>0.01202596665479727</v>
+        <v>0.005129595391293977</v>
       </c>
       <c r="T2">
-        <v>0.01285002603822662</v>
+        <v>0.005452703910893061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3808106666666666</v>
+        <v>0.217163</v>
       </c>
       <c r="H3">
-        <v>1.142432</v>
+        <v>0.651489</v>
       </c>
       <c r="I3">
-        <v>0.2683764536797542</v>
+        <v>0.1808902030682995</v>
       </c>
       <c r="J3">
-        <v>0.284735073448575</v>
+        <v>0.1905114067523763</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>0.1804514502542222</v>
+        <v>0.1029051487306667</v>
       </c>
       <c r="R3">
-        <v>1.624063052288</v>
+        <v>0.9261463385759999</v>
       </c>
       <c r="S3">
-        <v>0.0002637558993550853</v>
+        <v>0.0001342281952670125</v>
       </c>
       <c r="T3">
-        <v>0.0002818293341181611</v>
+        <v>0.0001426831064545088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3808106666666666</v>
+        <v>0.217163</v>
       </c>
       <c r="H4">
-        <v>1.142432</v>
+        <v>0.651489</v>
       </c>
       <c r="I4">
-        <v>0.2683764536797542</v>
+        <v>0.1808902030682995</v>
       </c>
       <c r="J4">
-        <v>0.284735073448575</v>
+        <v>0.1905114067523763</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>87.261485504448</v>
+        <v>66.391666952294</v>
       </c>
       <c r="R4">
-        <v>785.353369540032</v>
+        <v>597.5250025706461</v>
       </c>
       <c r="S4">
-        <v>0.1275452846505893</v>
+        <v>0.08660046407492564</v>
       </c>
       <c r="T4">
-        <v>0.1362851133600392</v>
+        <v>0.09205534805882293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3808106666666666</v>
+        <v>0.217163</v>
       </c>
       <c r="H5">
-        <v>1.142432</v>
+        <v>0.651489</v>
       </c>
       <c r="I5">
-        <v>0.2683764536797542</v>
+        <v>0.1808902030682995</v>
       </c>
       <c r="J5">
-        <v>0.284735073448575</v>
+        <v>0.1905114067523763</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>3.902091691226666</v>
+        <v>3.8359345489685</v>
       </c>
       <c r="R5">
-        <v>23.41255014736</v>
+        <v>23.015607293811</v>
       </c>
       <c r="S5">
-        <v>0.005703471498486413</v>
+        <v>0.005003545284386545</v>
       </c>
       <c r="T5">
-        <v>0.004062861604260189</v>
+        <v>0.003545809348733416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3808106666666666</v>
+        <v>0.217163</v>
       </c>
       <c r="H6">
-        <v>1.142432</v>
+        <v>0.651489</v>
       </c>
       <c r="I6">
-        <v>0.2683764536797542</v>
+        <v>0.1808902030682995</v>
       </c>
       <c r="J6">
-        <v>0.284735073448575</v>
+        <v>0.1905114067523763</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>84.04092869583287</v>
+        <v>64.41518845538933</v>
       </c>
       <c r="R6">
-        <v>756.3683582624958</v>
+        <v>579.736696098504</v>
       </c>
       <c r="S6">
-        <v>0.1228379749765261</v>
+        <v>0.08402237012242636</v>
       </c>
       <c r="T6">
-        <v>0.1312552431119309</v>
+        <v>0.08931486232747239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.108359</v>
       </c>
       <c r="I7">
-        <v>0.260372134029893</v>
+        <v>0.3077431615615573</v>
       </c>
       <c r="J7">
-        <v>0.2762428584566864</v>
+        <v>0.3241114313160423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>7.982304351861001</v>
+        <v>6.69036526452</v>
       </c>
       <c r="R7">
-        <v>71.840739166749</v>
+        <v>60.21328738068</v>
       </c>
       <c r="S7">
-        <v>0.01166729256143425</v>
+        <v>0.008726829184067884</v>
       </c>
       <c r="T7">
-        <v>0.01246677439856623</v>
+        <v>0.009276524168441099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.108359</v>
       </c>
       <c r="I8">
-        <v>0.260372134029893</v>
+        <v>0.3077431615615573</v>
       </c>
       <c r="J8">
-        <v>0.2762428584566864</v>
+        <v>0.3241114313160423</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
         <v>0.175069491184</v>
@@ -948,10 +948,10 @@
         <v>1.575625420656</v>
       </c>
       <c r="S8">
-        <v>0.0002558893875988269</v>
+        <v>0.0002283584654199084</v>
       </c>
       <c r="T8">
-        <v>0.0002734237827143068</v>
+        <v>0.0002427425561856193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.108359</v>
       </c>
       <c r="I9">
-        <v>0.260372134029893</v>
+        <v>0.3077431615615573</v>
       </c>
       <c r="J9">
-        <v>0.2762428584566864</v>
+        <v>0.3241114313160423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>84.65891432682601</v>
+        <v>112.950182722314</v>
       </c>
       <c r="R9">
-        <v>761.9302289414341</v>
+        <v>1016.551644500826</v>
       </c>
       <c r="S9">
-        <v>0.1237412503764272</v>
+        <v>0.1473308125871972</v>
       </c>
       <c r="T9">
-        <v>0.1322204139577845</v>
+        <v>0.1566110456494721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.108359</v>
       </c>
       <c r="I10">
-        <v>0.260372134029893</v>
+        <v>0.3077431615615573</v>
       </c>
       <c r="J10">
-        <v>0.2762428584566864</v>
+        <v>0.3241114313160423</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>3.7857119240325</v>
+        <v>6.5259621893235</v>
       </c>
       <c r="R10">
-        <v>22.714271544195</v>
+        <v>39.155773135941</v>
       </c>
       <c r="S10">
-        <v>0.005533365632782434</v>
+        <v>0.008512383858909954</v>
       </c>
       <c r="T10">
-        <v>0.003941686879250773</v>
+        <v>0.006032380752327086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.108359</v>
       </c>
       <c r="I11">
-        <v>0.260372134029893</v>
+        <v>0.3077431615615573</v>
       </c>
       <c r="J11">
-        <v>0.2762428584566864</v>
+        <v>0.3241114313160423</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N11">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O11">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P11">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q11">
-        <v>81.534410528053</v>
+        <v>109.587658212536</v>
       </c>
       <c r="R11">
-        <v>733.809694752477</v>
+        <v>986.2889239128241</v>
       </c>
       <c r="S11">
-        <v>0.1191743360716502</v>
+        <v>0.1429447774659624</v>
       </c>
       <c r="T11">
-        <v>0.1273405594383706</v>
+        <v>0.1519487381896164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.256018</v>
+        <v>0.22564</v>
       </c>
       <c r="H12">
-        <v>0.768054</v>
+        <v>0.67692</v>
       </c>
       <c r="I12">
-        <v>0.1804287771653367</v>
+        <v>0.1879512873755248</v>
       </c>
       <c r="J12">
-        <v>0.1914266337974355</v>
+        <v>0.19794805661925</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N12">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O12">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P12">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q12">
-        <v>5.531457575266001</v>
+        <v>4.086078657599999</v>
       </c>
       <c r="R12">
-        <v>49.783118177394</v>
+        <v>36.7747079184</v>
       </c>
       <c r="S12">
-        <v>0.00808502544841502</v>
+        <v>0.005329830146441028</v>
       </c>
       <c r="T12">
-        <v>0.008639038383697329</v>
+        <v>0.005665551270031775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.256018</v>
+        <v>0.22564</v>
       </c>
       <c r="H13">
-        <v>0.768054</v>
+        <v>0.67692</v>
       </c>
       <c r="I13">
-        <v>0.1804287771653367</v>
+        <v>0.1879512873755248</v>
       </c>
       <c r="J13">
-        <v>0.1914266337974355</v>
+        <v>0.19794805661925</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P13">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q13">
-        <v>0.1213170308373333</v>
+        <v>0.1069220712533333</v>
       </c>
       <c r="R13">
-        <v>1.091853277536</v>
+        <v>0.96229864128</v>
       </c>
       <c r="S13">
-        <v>0.0001773223907622254</v>
+        <v>0.0001394678190117501</v>
       </c>
       <c r="T13">
-        <v>0.000189473112961463</v>
+        <v>0.0001482527693041419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.256018</v>
+        <v>0.22564</v>
       </c>
       <c r="H14">
-        <v>0.768054</v>
+        <v>0.67692</v>
       </c>
       <c r="I14">
-        <v>0.1804287771653367</v>
+        <v>0.1879512873755248</v>
       </c>
       <c r="J14">
-        <v>0.1914266337974355</v>
+        <v>0.19794805661925</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N14">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O14">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P14">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q14">
-        <v>58.66566499155601</v>
+        <v>68.98327860232</v>
       </c>
       <c r="R14">
-        <v>527.990984924004</v>
+        <v>620.8495074208799</v>
       </c>
       <c r="S14">
-        <v>0.08574835618839782</v>
+        <v>0.08998093005652999</v>
       </c>
       <c r="T14">
-        <v>0.09162411982212643</v>
+        <v>0.09564874649914031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.256018</v>
+        <v>0.22564</v>
       </c>
       <c r="H15">
-        <v>0.768054</v>
+        <v>0.67692</v>
       </c>
       <c r="I15">
-        <v>0.1804287771653367</v>
+        <v>0.1879512873755248</v>
       </c>
       <c r="J15">
-        <v>0.1914266337974355</v>
+        <v>0.19794805661925</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N15">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O15">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P15">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q15">
-        <v>2.623365882445</v>
+        <v>3.985671001179999</v>
       </c>
       <c r="R15">
-        <v>15.74019529467</v>
+        <v>23.91402600708</v>
       </c>
       <c r="S15">
-        <v>0.003834428743503757</v>
+        <v>0.005198859649060751</v>
       </c>
       <c r="T15">
-        <v>0.00273145106807097</v>
+        <v>0.003684220707248509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.256018</v>
+        <v>0.22564</v>
       </c>
       <c r="H16">
-        <v>0.768054</v>
+        <v>0.67692</v>
       </c>
       <c r="I16">
-        <v>0.1804287771653367</v>
+        <v>0.1879512873755248</v>
       </c>
       <c r="J16">
-        <v>0.1914266337974355</v>
+        <v>0.19794805661925</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N16">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O16">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P16">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q16">
-        <v>56.50049320095133</v>
+        <v>66.92964788234666</v>
       </c>
       <c r="R16">
-        <v>508.504438808562</v>
+        <v>602.36683094112</v>
       </c>
       <c r="S16">
-        <v>0.08258364439425787</v>
+        <v>0.08730219970448135</v>
       </c>
       <c r="T16">
-        <v>0.08824255141057932</v>
+        <v>0.09280128537352528</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.2445635</v>
+        <v>0.1818865</v>
       </c>
       <c r="H17">
-        <v>0.489127</v>
+        <v>0.363773</v>
       </c>
       <c r="I17">
-        <v>0.1723562141891383</v>
+        <v>0.1515059467790658</v>
       </c>
       <c r="J17">
-        <v>0.1219080105167583</v>
+        <v>0.1063761720743285</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N17">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O17">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P17">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q17">
-        <v>5.283974660799501</v>
+        <v>3.29375352666</v>
       </c>
       <c r="R17">
-        <v>31.703847964797</v>
+        <v>19.76252115996</v>
       </c>
       <c r="S17">
-        <v>0.007723293367081401</v>
+        <v>0.004296331106765848</v>
       </c>
       <c r="T17">
-        <v>0.005501679475014417</v>
+        <v>0.003044635381069061</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.2445635</v>
+        <v>0.1818865</v>
       </c>
       <c r="H18">
-        <v>0.489127</v>
+        <v>0.363773</v>
       </c>
       <c r="I18">
-        <v>0.1723562141891383</v>
+        <v>0.1515059467790658</v>
       </c>
       <c r="J18">
-        <v>0.1219080105167583</v>
+        <v>0.1063761720743285</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>1.421584</v>
       </c>
       <c r="O18">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P18">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q18">
-        <v>0.1158891861946667</v>
+        <v>0.08618897940533334</v>
       </c>
       <c r="R18">
-        <v>0.695335117168</v>
+        <v>0.517133876432</v>
       </c>
       <c r="S18">
-        <v>0.0001693888106038541</v>
+        <v>0.0001124238320452078</v>
       </c>
       <c r="T18">
-        <v>0.0001206639316031184</v>
+        <v>7.967020423104004E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.2445635</v>
+        <v>0.1818865</v>
       </c>
       <c r="H19">
-        <v>0.489127</v>
+        <v>0.363773</v>
       </c>
       <c r="I19">
-        <v>0.1723562141891383</v>
+        <v>0.1515059467790658</v>
       </c>
       <c r="J19">
-        <v>0.1219080105167583</v>
+        <v>0.1063761720743285</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N19">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O19">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P19">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q19">
-        <v>56.04090478076701</v>
+        <v>55.606838785237</v>
       </c>
       <c r="R19">
-        <v>336.245428684602</v>
+        <v>333.641032711422</v>
       </c>
       <c r="S19">
-        <v>0.08191188943231034</v>
+        <v>0.07253286843966956</v>
       </c>
       <c r="T19">
-        <v>0.0583498437040068</v>
+        <v>0.05140109829851647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.2445635</v>
+        <v>0.1818865</v>
       </c>
       <c r="H20">
-        <v>0.489127</v>
+        <v>0.363773</v>
       </c>
       <c r="I20">
-        <v>0.1723562141891383</v>
+        <v>0.1515059467790658</v>
       </c>
       <c r="J20">
-        <v>0.1219080105167583</v>
+        <v>0.1063761720743285</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N20">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O20">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P20">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q20">
-        <v>2.50599388320875</v>
+        <v>3.21281576208175</v>
       </c>
       <c r="R20">
-        <v>10.023975532835</v>
+        <v>12.851263048327</v>
       </c>
       <c r="S20">
-        <v>0.003662872587130127</v>
+        <v>0.004190756893985501</v>
       </c>
       <c r="T20">
-        <v>0.001739495486739669</v>
+        <v>0.001979879482565018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.2445635</v>
+        <v>0.1818865</v>
       </c>
       <c r="H21">
-        <v>0.489127</v>
+        <v>0.363773</v>
       </c>
       <c r="I21">
-        <v>0.1723562141891383</v>
+        <v>0.1515059467790658</v>
       </c>
       <c r="J21">
-        <v>0.1219080105167583</v>
+        <v>0.1063761720743285</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N21">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O21">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P21">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q21">
-        <v>53.97260492993016</v>
+        <v>53.95142439085467</v>
       </c>
       <c r="R21">
-        <v>323.835629579581</v>
+        <v>323.708546345128</v>
       </c>
       <c r="S21">
-        <v>0.07888876999201259</v>
+        <v>0.07037356650659966</v>
       </c>
       <c r="T21">
-        <v>0.05619632791939425</v>
+        <v>0.0498708887079469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.168097</v>
+        <v>0.2063813333333333</v>
       </c>
       <c r="H22">
-        <v>0.504291</v>
+        <v>0.6191439999999999</v>
       </c>
       <c r="I22">
-        <v>0.118466420935878</v>
+        <v>0.1719094012155527</v>
       </c>
       <c r="J22">
-        <v>0.1256874237805448</v>
+        <v>0.1810529332380029</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N22">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O22">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P22">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q22">
-        <v>3.631859572489001</v>
+        <v>3.737326544319999</v>
       </c>
       <c r="R22">
-        <v>32.686736152401</v>
+        <v>33.63593889887999</v>
       </c>
       <c r="S22">
-        <v>0.00530848816412213</v>
+        <v>0.004874922230378899</v>
       </c>
       <c r="T22">
-        <v>0.005672243495318181</v>
+        <v>0.005181989120623638</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.168097</v>
+        <v>0.2063813333333333</v>
       </c>
       <c r="H23">
-        <v>0.504291</v>
+        <v>0.6191439999999999</v>
       </c>
       <c r="I23">
-        <v>0.118466420935878</v>
+        <v>0.1719094012155527</v>
       </c>
       <c r="J23">
-        <v>0.1256874237805448</v>
+        <v>0.1810529332380029</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>1.421584</v>
       </c>
       <c r="O23">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P23">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q23">
-        <v>0.07965466854933334</v>
+        <v>0.09779613378844443</v>
       </c>
       <c r="R23">
-        <v>0.7168920169440001</v>
+        <v>0.8801652040959999</v>
       </c>
       <c r="S23">
-        <v>0.0001164268212389668</v>
+        <v>0.0001275640597621743</v>
       </c>
       <c r="T23">
-        <v>0.0001244047757168756</v>
+        <v>0.0001355992031525788</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.168097</v>
+        <v>0.2063813333333333</v>
       </c>
       <c r="H24">
-        <v>0.504291</v>
+        <v>0.6191439999999999</v>
       </c>
       <c r="I24">
-        <v>0.118466420935878</v>
+        <v>0.1719094012155527</v>
       </c>
       <c r="J24">
-        <v>0.1256874237805448</v>
+        <v>0.1810529332380029</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N24">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O24">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P24">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q24">
-        <v>38.51886308027401</v>
+        <v>63.09546629875732</v>
       </c>
       <c r="R24">
-        <v>346.669767722466</v>
+        <v>567.8591966888159</v>
       </c>
       <c r="S24">
-        <v>0.05630089068034713</v>
+        <v>0.08230094096631832</v>
       </c>
       <c r="T24">
-        <v>0.06015881566819516</v>
+        <v>0.08748500192410287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.168097</v>
+        <v>0.2063813333333333</v>
       </c>
       <c r="H25">
-        <v>0.504291</v>
+        <v>0.6191439999999999</v>
       </c>
       <c r="I25">
-        <v>0.118466420935878</v>
+        <v>0.1719094012155527</v>
       </c>
       <c r="J25">
-        <v>0.1256874237805448</v>
+        <v>0.1810529332380029</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N25">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O25">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P25">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q25">
-        <v>1.7224567598425</v>
+        <v>3.645488811609332</v>
       </c>
       <c r="R25">
-        <v>10.334740559055</v>
+        <v>21.87293286965599</v>
       </c>
       <c r="S25">
-        <v>0.002517619731803041</v>
+        <v>0.004755130234825488</v>
       </c>
       <c r="T25">
-        <v>0.001793423627204048</v>
+        <v>0.003369767691261405</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.168097</v>
+        <v>0.2063813333333333</v>
       </c>
       <c r="H26">
-        <v>0.504291</v>
+        <v>0.6191439999999999</v>
       </c>
       <c r="I26">
-        <v>0.118466420935878</v>
+        <v>0.1719094012155527</v>
       </c>
       <c r="J26">
-        <v>0.1256874237805448</v>
+        <v>0.1810529332380029</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N26">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O26">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P26">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q26">
-        <v>37.09724865283034</v>
+        <v>61.21711562439821</v>
       </c>
       <c r="R26">
-        <v>333.875237875473</v>
+        <v>550.9540406195839</v>
       </c>
       <c r="S26">
-        <v>0.0542229955383667</v>
+        <v>0.07985084372426786</v>
       </c>
       <c r="T26">
-        <v>0.05793853621411055</v>
+        <v>0.08488057529886239</v>
       </c>
     </row>
   </sheetData>
